--- a/excel/itemcfg.xlsx
+++ b/excel/itemcfg.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>CfgId</t>
   </si>
@@ -45,6 +45,19 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>#注释行</t>
+  </si>
+  <si>
+    <t>物品名</t>
+  </si>
+  <si>
+    <t>物品类型
+enum ItemType</t>
+  </si>
+  <si>
+    <t>描述</t>
   </si>
   <si>
     <t>普通物品1</t>
@@ -684,9 +697,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1221,15 +1237,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1260,60 +1277,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" ht="39" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/excel/itemcfg.xlsx
+++ b/excel/itemcfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>CfgId</t>
   </si>
@@ -38,15 +38,30 @@
     <t>ItemType</t>
   </si>
   <si>
+    <t>SubType</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>TimeType</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
     <t>Detail</t>
   </si>
   <si>
     <t>cs</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>#注释行</t>
   </si>
   <si>
@@ -54,34 +69,79 @@
   </si>
   <si>
     <t>物品类型
-enum ItemType</t>
+enum 
+ItemType</t>
+  </si>
+  <si>
+    <t>物品子类
+enum 
+ItemSubType</t>
+  </si>
+  <si>
+    <t>物品分类</t>
+  </si>
+  <si>
+    <t>参数(比如ItemSubType=ItemSubType_Exp是,表示加经验的数值)</t>
+  </si>
+  <si>
+    <t>限时道具的时间类型enum TimeType</t>
+  </si>
+  <si>
+    <t>限时道具的时限</t>
+  </si>
+  <si>
+    <t>K_V格式的动态属性</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
-    <t>普通物品1</t>
-  </si>
-  <si>
-    <t>普通物品1描述</t>
-  </si>
-  <si>
-    <t>普通物品2</t>
-  </si>
-  <si>
-    <t>普通物品2描述</t>
-  </si>
-  <si>
-    <t>装备3</t>
-  </si>
-  <si>
-    <t>装备3描述</t>
-  </si>
-  <si>
-    <t>装备4</t>
-  </si>
-  <si>
-    <t>装备4描述</t>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>金币也是背包里的一个物品</t>
+  </si>
+  <si>
+    <t>道具2</t>
+  </si>
+  <si>
+    <t>普通道具2</t>
+  </si>
+  <si>
+    <t>道具3</t>
+  </si>
+  <si>
+    <t>普通道具3</t>
+  </si>
+  <si>
+    <t>道具4</t>
+  </si>
+  <si>
+    <t>普通道具4</t>
+  </si>
+  <si>
+    <t>小经验丹</t>
+  </si>
+  <si>
+    <t>使用后增加10点经验值(功能待实现)</t>
+  </si>
+  <si>
+    <t>大经验丹</t>
+  </si>
+  <si>
+    <t>使用后增加50点经验值(功能待实现)</t>
+  </si>
+  <si>
+    <t>倚天剑</t>
+  </si>
+  <si>
+    <t>倚天剑的描述</t>
+  </si>
+  <si>
+    <t>屠龙刀</t>
+  </si>
+  <si>
+    <t>屠龙刀的描述</t>
   </si>
 </sst>
 </file>
@@ -1237,19 +1297,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1262,89 +1325,214 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="39" customHeight="1" spans="1:4">
+    <row r="3" ht="108" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="J5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>10001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/excel/itemcfg.xlsx
+++ b/excel/itemcfg.xlsx
@@ -26,8 +26,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gy</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>None  = 0; // 普通物品
+Equip = 1; // 装备</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Gold  = 1; // 金币
+Exp   = 2; // 经验丹
+Quest = 3; // 任务物品</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>CfgId</t>
   </si>
@@ -142,6 +179,9 @@
   </si>
   <si>
     <t>屠龙刀的描述</t>
+  </si>
+  <si>
+    <t>任务物品</t>
   </si>
 </sst>
 </file>
@@ -154,7 +194,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +345,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1297,10 +1342,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1535,8 +1580,17 @@
         <v>36</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>20001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/itemcfg.xlsx
+++ b/excel/itemcfg.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>CfgId</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>任务物品</t>
+  </si>
+  <si>
+    <t>测试收集任务用</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1348,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1580,12 +1583,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>20001</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/excel/itemcfg.xlsx
+++ b/excel/itemcfg.xlsx
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/itemcfg.xlsx
+++ b/excel/itemcfg.xlsx
@@ -81,7 +81,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Arg</t>
+    <t>Args</t>
   </si>
   <si>
     <t>TimeType</t>
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1473,7 +1473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" ht="14" customHeight="1" spans="1:10">
       <c r="A5">
         <v>2</v>
       </c>
